--- a/clothes.xlsx
+++ b/clothes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17580"/>
+    <workbookView windowHeight="16860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="139">
   <si>
     <t>MALL</t>
   </si>
@@ -122,172 +122,328 @@
     <t>Tops</t>
   </si>
   <si>
+    <t>Panties</t>
+  </si>
+  <si>
+    <t>Sleepwear</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Looks</t>
+  </si>
+  <si>
+    <t>Quality</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Shop</t>
+  </si>
+  <si>
+    <t>Owned</t>
+  </si>
+  <si>
+    <t>reqConfidence</t>
+  </si>
+  <si>
+    <t>reqCorruption</t>
+  </si>
+  <si>
+    <t>reqExhibitionism</t>
+  </si>
+  <si>
+    <t>tshirt_white_owned</t>
+  </si>
+  <si>
+    <t>White T-Shirt</t>
+  </si>
+  <si>
+    <t>Common</t>
+  </si>
+  <si>
+    <t>casual</t>
+  </si>
+  <si>
+    <t>panties_white_owned</t>
+  </si>
+  <si>
+    <t>White Panties</t>
+  </si>
+  <si>
+    <t>pajama_color_owned</t>
+  </si>
+  <si>
+    <t>Floral Pajama Set</t>
+  </si>
+  <si>
+    <t>common</t>
+  </si>
+  <si>
+    <t>sleepwear</t>
+  </si>
+  <si>
+    <t>tshirt_blue_owned</t>
+  </si>
+  <si>
+    <t>Blue T-Shirt</t>
+  </si>
+  <si>
+    <t>panties_pink_owned</t>
+  </si>
+  <si>
+    <t>Pink Panties</t>
+  </si>
+  <si>
+    <t>topRubysDishwash</t>
+  </si>
+  <si>
+    <t>Ruby's Dishwashing Top</t>
+  </si>
+  <si>
+    <t>Ruby's Diner</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>crop_sports_tee_navy</t>
+  </si>
+  <si>
+    <t>Crop Sports Tee</t>
+  </si>
+  <si>
+    <t>casual, sporty, crop</t>
+  </si>
+  <si>
+    <t>tank_racerback_white</t>
+  </si>
+  <si>
+    <t>Racerback Tank</t>
+  </si>
+  <si>
+    <t>casual, sporty</t>
+  </si>
+  <si>
+    <t>tank_top_cutout_white</t>
+  </si>
+  <si>
+    <t>Cutout Tank</t>
+  </si>
+  <si>
+    <t>casual, sporty, revealing</t>
+  </si>
+  <si>
+    <t>tank_top_mesh_black</t>
+  </si>
+  <si>
+    <t>Mesh Tank Top (Black)</t>
+  </si>
+  <si>
+    <t>Bra</t>
+  </si>
+  <si>
+    <t>tank_top_mesh_charcoal</t>
+  </si>
+  <si>
+    <t>Mesh Tank Top (Charcoal)</t>
+  </si>
+  <si>
+    <t>sneakers_girly_owned</t>
+  </si>
+  <si>
+    <t>Pastel Athletic Sneakers</t>
+  </si>
+  <si>
+    <t>sporty</t>
+  </si>
+  <si>
+    <t>bra_sport_white_owned</t>
+  </si>
+  <si>
+    <t>White Sports Bra</t>
+  </si>
+  <si>
+    <t>casual,sporty</t>
+  </si>
+  <si>
+    <t>sneakers_flat_owned</t>
+  </si>
+  <si>
+    <t>Black Canvas Sneakers</t>
+  </si>
+  <si>
+    <t>bra_black_owned</t>
+  </si>
+  <si>
+    <t>Black Bra</t>
+  </si>
+  <si>
+    <t>sandals_owned</t>
+  </si>
+  <si>
+    <t>Brown Sandals</t>
+  </si>
+  <si>
+    <t>bra_crop_top_pink</t>
+  </si>
+  <si>
+    <t>Sports Crop Bra-Top</t>
+  </si>
+  <si>
+    <t>bra_sports_black</t>
+  </si>
+  <si>
+    <t>Sports Bra (Black)</t>
+  </si>
+  <si>
     <t>bottom</t>
   </si>
   <si>
+    <t>bra_sports_gray</t>
+  </si>
+  <si>
+    <t>Sports Bra (Gray)</t>
+  </si>
+  <si>
+    <t>bra_sports_low_support_white</t>
+  </si>
+  <si>
+    <t>Low-Support Sports Bra</t>
+  </si>
+  <si>
+    <t>casual, sporty, bold</t>
+  </si>
+  <si>
+    <t>jeans_blue_owned</t>
+  </si>
+  <si>
+    <t>Blue Jeans</t>
+  </si>
+  <si>
+    <t>bra_sports_strappy</t>
+  </si>
+  <si>
+    <t>Strappy Sports Bralette</t>
+  </si>
+  <si>
+    <t>Special</t>
+  </si>
+  <si>
+    <t>leggings_black_owned</t>
+  </si>
+  <si>
+    <t>Black Leggings</t>
+  </si>
+  <si>
+    <t>bottomRubysDishwash</t>
+  </si>
+  <si>
+    <t>Ruby's Dishwashing Bottoms</t>
+  </si>
+  <si>
+    <t>leggings_high_waist_navy</t>
+  </si>
+  <si>
+    <t>High-Waist Leggings (Navy)</t>
+  </si>
+  <si>
+    <t>leggings_high_cut_black</t>
+  </si>
+  <si>
+    <t>High-Cut Leggings (Black)</t>
+  </si>
+  <si>
+    <t>shorts_running_black</t>
+  </si>
+  <si>
+    <t>Running Shorts (Black)</t>
+  </si>
+  <si>
+    <t>casual, sporty, short</t>
+  </si>
+  <si>
+    <t>Socks</t>
+  </si>
+  <si>
+    <t>shorts_yoga_gray</t>
+  </si>
+  <si>
+    <t>Yoga Shorts (Gray)</t>
+  </si>
+  <si>
+    <t>short_thong_back_black</t>
+  </si>
+  <si>
+    <t>Thong-Back Shorts (Black)</t>
+  </si>
+  <si>
+    <t>casual, sporty, short, daring</t>
+  </si>
+  <si>
+    <t>socks_white_owned</t>
+  </si>
+  <si>
+    <t>White Socks</t>
+  </si>
+  <si>
+    <t>coomon</t>
+  </si>
+  <si>
+    <t>short_mesh_see_through_gray</t>
+  </si>
+  <si>
+    <t>See-Through Mesh Shorts (Gray)</t>
+  </si>
+  <si>
+    <t>socks_black_owned</t>
+  </si>
+  <si>
+    <t>Black Socks</t>
+  </si>
+  <si>
+    <t>socks_crew_white</t>
+  </si>
+  <si>
+    <t>Athletic Crew Socks (White)</t>
+  </si>
+  <si>
+    <t>socks_crew_black</t>
+  </si>
+  <si>
+    <t>Athletic Crew Socks (Black)</t>
+  </si>
+  <si>
     <t>Dresses</t>
   </si>
   <si>
-    <t>Panties</t>
-  </si>
-  <si>
-    <t>Bra</t>
-  </si>
-  <si>
-    <t>Socks</t>
-  </si>
-  <si>
-    <t>Sleepwear</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Brand</t>
-  </si>
-  <si>
-    <t>Looks</t>
-  </si>
-  <si>
-    <t>Quality</t>
-  </si>
-  <si>
-    <t>Tags</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Shop</t>
-  </si>
-  <si>
-    <t>Owned</t>
-  </si>
-  <si>
-    <t>reqConfidence</t>
-  </si>
-  <si>
-    <t>reqCorruption</t>
-  </si>
-  <si>
-    <t>reqExhibitionism</t>
-  </si>
-  <si>
-    <t>tshirt_white_owned</t>
-  </si>
-  <si>
-    <t>White T-Shirt</t>
-  </si>
-  <si>
-    <t>Common</t>
-  </si>
-  <si>
-    <t>casual</t>
-  </si>
-  <si>
-    <t>jeans_blue_owned</t>
-  </si>
-  <si>
-    <t>Blue Jeans</t>
-  </si>
-  <si>
     <t>dress_summer_owned</t>
   </si>
   <si>
     <t>Floral Summer Dress</t>
   </si>
   <si>
-    <t>panties_white_owned</t>
-  </si>
-  <si>
-    <t>White Panties</t>
-  </si>
-  <si>
-    <t>bra_sport_white_owned</t>
-  </si>
-  <si>
-    <t>White Sports Bra</t>
-  </si>
-  <si>
-    <t>common</t>
-  </si>
-  <si>
-    <t>casual,sporty</t>
-  </si>
-  <si>
-    <t>socks_white_owned</t>
-  </si>
-  <si>
-    <t>White Socks</t>
-  </si>
-  <si>
-    <t>coomon</t>
-  </si>
-  <si>
-    <t>pajama_color_owned</t>
-  </si>
-  <si>
-    <t>Floral Pajama Set</t>
-  </si>
-  <si>
-    <t>sleepwear</t>
-  </si>
-  <si>
-    <t>sneakers_girly_owned</t>
-  </si>
-  <si>
-    <t>Pastel Athletic Sneakers</t>
-  </si>
-  <si>
-    <t>sporty</t>
-  </si>
-  <si>
-    <t>tshirt_blue_owned</t>
-  </si>
-  <si>
-    <t>Blue T-Shirt</t>
-  </si>
-  <si>
-    <t>leggings_black_owned</t>
-  </si>
-  <si>
-    <t>Black Leggings</t>
-  </si>
-  <si>
-    <t>casual, sporty</t>
-  </si>
-  <si>
-    <t>panties_pink_owned</t>
-  </si>
-  <si>
-    <t>Pink Panties</t>
-  </si>
-  <si>
-    <t>bra_black_owned</t>
-  </si>
-  <si>
-    <t>Black Bra</t>
-  </si>
-  <si>
-    <t>socks_black_owned</t>
-  </si>
-  <si>
-    <t>Black Socks</t>
-  </si>
-  <si>
-    <t>sneakers_flat_owned</t>
-  </si>
-  <si>
-    <t>Black Canvas Sneakers</t>
-  </si>
-  <si>
-    <t>sandals_owned</t>
-  </si>
-  <si>
-    <t>Brown Sandals</t>
+    <t>Shoes</t>
+  </si>
+  <si>
+    <t>sneakers_trail_runners</t>
+  </si>
+  <si>
+    <t>Trail Runners</t>
   </si>
 </sst>
 </file>
@@ -300,7 +456,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,6 +480,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -464,18 +627,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -805,137 +962,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -948,41 +1105,53 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="30" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="30" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="30" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="30" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="30" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1520,27 +1689,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:DF26"/>
+  <dimension ref="A2:DA60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CF4" workbookViewId="0">
-      <selection activeCell="CS41" sqref="CS41"/>
+    <sheetView tabSelected="1" topLeftCell="K15" workbookViewId="0">
+      <selection activeCell="Y53" sqref="Y53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="20.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="13.7142857142857" customWidth="1"/>
-    <col min="4" max="4" width="18.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="31.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="25.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="19.4285714285714" customWidth="1"/>
+    <col min="7" max="7" width="27.7142857142857" customWidth="1"/>
     <col min="10" max="10" width="11.8571428571429" customWidth="1"/>
     <col min="11" max="11" width="15.2857142857143" customWidth="1"/>
     <col min="12" max="12" width="14.7142857142857" customWidth="1"/>
     <col min="13" max="13" width="17.5714285714286" customWidth="1"/>
     <col min="14" max="14" width="11" customWidth="1"/>
-    <col min="15" max="15" width="23" customWidth="1"/>
-    <col min="16" max="16" width="14.7142857142857" customWidth="1"/>
+    <col min="15" max="15" width="31.1428571428571" customWidth="1"/>
+    <col min="16" max="16" width="32.4285714285714" customWidth="1"/>
     <col min="17" max="17" width="19.4285714285714" customWidth="1"/>
-    <col min="20" max="20" width="14" customWidth="1"/>
+    <col min="20" max="20" width="27.7142857142857" customWidth="1"/>
     <col min="22" max="22" width="11.8571428571429" customWidth="1"/>
     <col min="23" max="23" width="8" customWidth="1"/>
     <col min="24" max="24" width="15.2857142857143" customWidth="1"/>
@@ -1564,11 +1734,11 @@
     <col min="50" max="50" width="15.2857142857143" customWidth="1"/>
     <col min="51" max="51" width="14.7142857142857" customWidth="1"/>
     <col min="52" max="52" width="17.5714285714286" customWidth="1"/>
-    <col min="54" max="54" width="25" customWidth="1"/>
-    <col min="55" max="55" width="17" customWidth="1"/>
+    <col min="54" max="54" width="31.5714285714286" customWidth="1"/>
+    <col min="55" max="55" width="23.7142857142857" customWidth="1"/>
     <col min="56" max="56" width="19.4285714285714" customWidth="1"/>
     <col min="58" max="58" width="9.28571428571429" customWidth="1"/>
-    <col min="59" max="59" width="12.4285714285714" customWidth="1"/>
+    <col min="59" max="59" width="24.4285714285714" customWidth="1"/>
     <col min="60" max="60" width="6" customWidth="1"/>
     <col min="62" max="62" width="8" customWidth="1"/>
     <col min="63" max="63" width="15.2857142857143" customWidth="1"/>
@@ -1621,18 +1791,18 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
     </row>
     <row r="4" ht="17.25" spans="3:13">
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
       <c r="F4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1651,8 +1821,8 @@
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
       <c r="F5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1671,8 +1841,8 @@
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
       <c r="F6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1698,8 +1868,8 @@
       <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
       <c r="F8" s="1" t="s">
         <v>15</v>
       </c>
@@ -1709,8 +1879,8 @@
       <c r="C9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
       <c r="F9" s="1" t="s">
         <v>17</v>
       </c>
@@ -1727,8 +1897,8 @@
       <c r="C11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
       <c r="F11" s="1" t="s">
         <v>19</v>
       </c>
@@ -1738,37 +1908,37 @@
       <c r="C12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" ht="17.25" spans="3:7">
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" ht="17.25" spans="3:7">
       <c r="C14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
       <c r="F14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" ht="17.25" spans="3:7">
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
     </row>
     <row r="16" ht="17.25" spans="3:7">
       <c r="C16" s="3" t="s">
@@ -1782,11 +1952,11 @@
       <c r="G16" s="1"/>
     </row>
     <row r="17" ht="17.25" spans="3:7">
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
     </row>
     <row r="18" ht="17.25" spans="3:7">
       <c r="C18" s="3" t="s">
@@ -1800,11 +1970,11 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" ht="17.25" spans="3:7">
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
     </row>
     <row r="20" ht="17.25" spans="3:7">
       <c r="C20" s="3" t="s">
@@ -1818,18 +1988,19 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="13:22">
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-    </row>
-    <row r="22" spans="2:110">
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+    </row>
+    <row r="22" spans="1:105">
+      <c r="A22" s="6"/>
       <c r="B22" s="7" t="s">
         <v>30</v>
       </c>
@@ -1842,9 +2013,9 @@
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="14"/>
       <c r="O22" s="7" t="s">
         <v>31</v>
       </c>
@@ -1857,9 +2028,9 @@
       <c r="V22" s="7"/>
       <c r="W22" s="7"/>
       <c r="X22" s="7"/>
-      <c r="Y22" s="12"/>
-      <c r="Z22" s="12"/>
-      <c r="AA22" s="13"/>
+      <c r="Y22" s="13"/>
+      <c r="Z22" s="13"/>
+      <c r="AA22" s="14"/>
       <c r="AB22" s="7" t="s">
         <v>32</v>
       </c>
@@ -1872,453 +2043,195 @@
       <c r="AI22" s="7"/>
       <c r="AJ22" s="7"/>
       <c r="AK22" s="7"/>
-      <c r="AL22" s="12"/>
-      <c r="AM22" s="12"/>
-      <c r="AN22" s="13"/>
-      <c r="AO22" s="7" t="s">
+      <c r="AL22" s="13"/>
+      <c r="AM22" s="13"/>
+      <c r="AN22" s="19"/>
+      <c r="BA22" s="19"/>
+      <c r="BN22" s="19"/>
+      <c r="CA22" s="19"/>
+      <c r="CN22" s="19"/>
+      <c r="DA22" s="19"/>
+    </row>
+    <row r="23" spans="1:105">
+      <c r="A23" s="6"/>
+      <c r="B23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AP22" s="7"/>
-      <c r="AQ22" s="7"/>
-      <c r="AR22" s="7"/>
-      <c r="AS22" s="7"/>
-      <c r="AT22" s="7"/>
-      <c r="AU22" s="7"/>
-      <c r="AV22" s="7"/>
-      <c r="AW22" s="7"/>
-      <c r="AX22" s="7"/>
-      <c r="AY22" s="12"/>
-      <c r="AZ22" s="12"/>
-      <c r="BA22" s="13"/>
-      <c r="BB22" s="7" t="s">
+      <c r="C23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="BC22" s="7"/>
-      <c r="BD22" s="7"/>
-      <c r="BE22" s="7"/>
-      <c r="BF22" s="7"/>
-      <c r="BG22" s="7"/>
-      <c r="BH22" s="7"/>
-      <c r="BI22" s="7"/>
-      <c r="BJ22" s="7"/>
-      <c r="BK22" s="7"/>
-      <c r="BL22" s="12"/>
-      <c r="BM22" s="12"/>
-      <c r="BN22" s="13"/>
-      <c r="BO22" s="7" t="s">
+      <c r="D23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="BP22" s="7"/>
-      <c r="BQ22" s="7"/>
-      <c r="BR22" s="7"/>
-      <c r="BS22" s="7"/>
-      <c r="BT22" s="7"/>
-      <c r="BU22" s="7"/>
-      <c r="BV22" s="7"/>
-      <c r="BW22" s="7"/>
-      <c r="BX22" s="7"/>
-      <c r="BY22" s="12"/>
-      <c r="BZ22" s="12"/>
-      <c r="CA22" s="13"/>
-      <c r="CB22" s="7" t="s">
+      <c r="E23" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="CC22" s="7"/>
-      <c r="CD22" s="7"/>
-      <c r="CE22" s="7"/>
-      <c r="CF22" s="7"/>
-      <c r="CG22" s="7"/>
-      <c r="CH22" s="7"/>
-      <c r="CI22" s="7"/>
-      <c r="CJ22" s="7"/>
-      <c r="CK22" s="7"/>
-      <c r="CL22" s="12"/>
-      <c r="CM22" s="12"/>
-      <c r="CN22" s="13"/>
-      <c r="CO22" s="7" t="s">
+      <c r="F23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="N23" s="15"/>
+      <c r="O23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R23" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="CP22" s="7"/>
-      <c r="CQ22" s="7"/>
-      <c r="CR22" s="7"/>
-      <c r="CS22" s="7"/>
-      <c r="CT22" s="7"/>
-      <c r="CU22" s="7"/>
-      <c r="CV22" s="7"/>
-      <c r="CW22" s="7"/>
-      <c r="CX22" s="7"/>
-      <c r="CY22" s="12"/>
-      <c r="CZ22" s="12"/>
-      <c r="DA22" s="13"/>
-      <c r="DB22" s="13"/>
-      <c r="DC22" s="13"/>
-      <c r="DD22" s="13"/>
-      <c r="DE22" s="13"/>
-      <c r="DF22" s="13"/>
-    </row>
-    <row r="23" spans="2:110">
-      <c r="B23" s="8" t="s">
+      <c r="S23" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="T23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="U23" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="V23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="W23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="X23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="Y23" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="I23" s="8" t="s">
+      <c r="Z23" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="J23" s="8" t="s">
+      <c r="AA23" s="15"/>
+      <c r="AB23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL23" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM23" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN23" s="20"/>
+      <c r="BA23" s="20"/>
+      <c r="BN23" s="20"/>
+      <c r="CA23" s="20"/>
+      <c r="CN23" s="20"/>
+      <c r="DA23" s="20"/>
+    </row>
+    <row r="24" spans="1:39">
+      <c r="A24" s="6"/>
+      <c r="B24" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K23" s="8" t="s">
+      <c r="C24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="L23" s="14" t="s">
+      <c r="D24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="1">
+        <v>3</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="M23" s="14" t="s">
+      <c r="G24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="N23" s="15"/>
-      <c r="O23" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="P23" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q23" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="R23" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="S23" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="T23" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="U23" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="V23" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="W23" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="X23" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y23" s="14" t="s">
+      <c r="H24" s="1">
+        <v>25</v>
+      </c>
+      <c r="I24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="9">
+        <v>0</v>
+      </c>
+      <c r="N24" s="16"/>
+      <c r="O24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R24" s="1">
+        <v>1</v>
+      </c>
+      <c r="S24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="Z23" s="14" t="s">
+      <c r="T24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AA23" s="16"/>
-      <c r="AB23" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC23" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD23" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE23" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF23" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG23" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH23" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AI23" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="AJ23" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK23" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL23" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM23" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="AN23" s="16"/>
-      <c r="AO23" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="AP23" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AQ23" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AR23" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="AS23" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="AT23" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="AU23" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AV23" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="AW23" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="AX23" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="AY23" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="AZ23" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="BA23" s="16"/>
-      <c r="BB23" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="BC23" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="BD23" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="BE23" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="BF23" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="BG23" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="BH23" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="BI23" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="BJ23" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="BK23" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="BL23" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="BM23" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="BN23" s="16"/>
-      <c r="BO23" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="BP23" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="BQ23" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="BR23" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="BS23" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="BT23" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="BU23" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="BV23" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="BW23" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="BX23" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="BY23" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="BZ23" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="CA23" s="16"/>
-      <c r="CB23" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="CC23" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="CD23" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="CE23" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="CF23" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="CG23" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="CH23" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="CI23" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="CJ23" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="CK23" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="CL23" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="CM23" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="CN23" s="16"/>
-      <c r="CO23" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="CP23" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="CQ23" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="CR23" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="CS23" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="CT23" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="CU23" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="CV23" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="CW23" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="CX23" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="CY23" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="CZ23" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="DA23" s="16"/>
-      <c r="DB23" s="16"/>
-      <c r="DC23" s="16"/>
-      <c r="DD23" s="16"/>
-      <c r="DE23" s="16"/>
-      <c r="DF23" s="16"/>
-    </row>
-    <row r="24" spans="2:104">
-      <c r="B24" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24" s="9">
-        <v>3</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H24" s="9">
-        <v>25</v>
-      </c>
-      <c r="I24" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="K24" s="1">
-        <v>0</v>
-      </c>
-      <c r="L24" s="1">
-        <v>0</v>
-      </c>
-      <c r="M24" s="14">
-        <v>0</v>
-      </c>
-      <c r="N24" s="11"/>
-      <c r="O24" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R24" s="14">
-        <v>4</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="T24" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="U24" s="14">
-        <v>60</v>
-      </c>
-      <c r="V24" s="14" t="b">
+      <c r="U24" s="1">
+        <v>15</v>
+      </c>
+      <c r="V24" s="1" t="b">
         <v>0</v>
       </c>
       <c r="W24" s="1" t="b">
@@ -2333,26 +2246,27 @@
       <c r="Z24" s="1">
         <v>0</v>
       </c>
+      <c r="AA24" s="6"/>
       <c r="AB24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE24" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH24" s="1">
         <v>55</v>
-      </c>
-      <c r="AC24" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE24" s="1">
-        <v>6</v>
-      </c>
-      <c r="AF24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH24" s="1">
-        <v>80</v>
       </c>
       <c r="AI24" s="1" t="b">
         <v>0</v>
@@ -2369,247 +2283,68 @@
       <c r="AM24" s="1">
         <v>0</v>
       </c>
-      <c r="AO24" s="1" t="s">
+    </row>
+    <row r="25" spans="1:39">
+      <c r="A25" s="6"/>
+      <c r="B25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="1">
+        <v>3</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H25" s="1">
+        <v>25</v>
+      </c>
+      <c r="I25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="9">
+        <v>0</v>
+      </c>
+      <c r="N25" s="16"/>
+      <c r="O25" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AP24" s="1" t="s">
+      <c r="P25" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AQ24" s="1" t="s">
+      <c r="Q25" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AR24" s="1">
-        <v>1</v>
-      </c>
-      <c r="AS24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AT24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AU24" s="1">
-        <v>15</v>
-      </c>
-      <c r="AV24" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW24" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ24" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB24" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BC24" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BD24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="BE24" s="1">
+      <c r="R25" s="1">
         <v>2</v>
       </c>
-      <c r="BF24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BG24" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BH24" s="1">
-        <v>30</v>
-      </c>
-      <c r="BI24" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ24" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BK24" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL24" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM24" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO24" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BP24" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BQ24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="BR24" s="1">
-        <v>1</v>
-      </c>
-      <c r="BS24" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BT24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BU24" s="1">
-        <v>10</v>
-      </c>
-      <c r="BV24" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="BW24" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BX24" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY24" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ24" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="CC24" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="CD24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="CE24" s="1">
-        <v>4</v>
-      </c>
-      <c r="CF24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="CG24" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="CH24" s="1">
-        <v>55</v>
-      </c>
-      <c r="CI24" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="CJ24" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="CK24" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL24" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM24" s="1">
-        <v>0</v>
-      </c>
-      <c r="CO24" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="CP24" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="CQ24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="CR24" s="1">
-        <v>5</v>
-      </c>
-      <c r="CS24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="CT24" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="CU24" s="1">
-        <v>65</v>
-      </c>
-      <c r="CV24" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="CW24" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="CX24" s="1">
-        <v>0</v>
-      </c>
-      <c r="CY24" s="1">
-        <v>0</v>
-      </c>
-      <c r="CZ24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:104">
-      <c r="B25" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" s="9">
-        <v>3</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H25" s="9">
-        <v>25</v>
-      </c>
-      <c r="I25" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="K25" s="1">
-        <v>0</v>
-      </c>
-      <c r="L25" s="1">
-        <v>0</v>
-      </c>
-      <c r="M25" s="14">
-        <v>0</v>
-      </c>
-      <c r="N25" s="11"/>
-      <c r="O25" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q25" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="R25" s="14">
-        <v>3</v>
-      </c>
       <c r="S25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="T25" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="U25" s="14">
-        <v>40</v>
-      </c>
-      <c r="V25" s="14" t="b">
+        <v>47</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="U25" s="1">
+        <v>16</v>
+      </c>
+      <c r="V25" s="1" t="b">
         <v>0</v>
       </c>
       <c r="W25" s="1" t="b">
@@ -2624,203 +2359,2293 @@
       <c r="Z25" s="1">
         <v>0</v>
       </c>
-      <c r="AB25" s="2"/>
-      <c r="AC25" s="2"/>
-      <c r="AD25" s="2"/>
-      <c r="AE25" s="2"/>
-      <c r="AF25" s="2"/>
-      <c r="AG25" s="2"/>
-      <c r="AH25" s="2"/>
-      <c r="AI25" s="2"/>
-      <c r="AJ25" s="2"/>
-      <c r="AK25" s="2"/>
-      <c r="AL25" s="2"/>
-      <c r="AM25" s="2"/>
-      <c r="AO25" s="1" t="s">
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="6"/>
+      <c r="AC25" s="6"/>
+      <c r="AD25" s="6"/>
+      <c r="AE25" s="6"/>
+      <c r="AF25" s="6"/>
+      <c r="AG25" s="6"/>
+      <c r="AH25" s="6"/>
+      <c r="AI25" s="6"/>
+      <c r="AJ25" s="6"/>
+      <c r="AK25" s="6"/>
+      <c r="AL25" s="6"/>
+      <c r="AM25" s="6"/>
+    </row>
+    <row r="26" spans="1:39">
+      <c r="A26" s="6"/>
+      <c r="B26" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="8">
+        <v>0</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H26" s="8">
+        <v>0</v>
+      </c>
+      <c r="I26" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="6"/>
+      <c r="AA26" s="6"/>
+      <c r="AB26" s="6"/>
+      <c r="AC26" s="6"/>
+      <c r="AD26" s="6"/>
+      <c r="AE26" s="6"/>
+      <c r="AF26" s="6"/>
+      <c r="AG26" s="6"/>
+      <c r="AH26" s="6"/>
+      <c r="AI26" s="6"/>
+      <c r="AJ26" s="6"/>
+      <c r="AK26" s="6"/>
+      <c r="AL26" s="6"/>
+      <c r="AM26" s="6"/>
+    </row>
+    <row r="27" spans="1:39">
+      <c r="A27" s="6"/>
+      <c r="B27" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="8">
+        <v>4</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H27" s="8">
+        <v>16</v>
+      </c>
+      <c r="I27" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" s="8">
+        <v>20</v>
+      </c>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="6"/>
+      <c r="AB27" s="6"/>
+      <c r="AC27" s="6"/>
+      <c r="AD27" s="6"/>
+      <c r="AE27" s="6"/>
+      <c r="AF27" s="6"/>
+      <c r="AG27" s="6"/>
+      <c r="AH27" s="6"/>
+      <c r="AI27" s="6"/>
+      <c r="AJ27" s="6"/>
+      <c r="AK27" s="6"/>
+      <c r="AL27" s="6"/>
+      <c r="AM27" s="6"/>
+    </row>
+    <row r="28" spans="1:39">
+      <c r="A28" s="6"/>
+      <c r="B28" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="8">
+        <v>3</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H28" s="8">
+        <v>18</v>
+      </c>
+      <c r="I28" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="6"/>
+      <c r="AB28" s="6"/>
+      <c r="AC28" s="6"/>
+      <c r="AD28" s="6"/>
+      <c r="AE28" s="6"/>
+      <c r="AF28" s="6"/>
+      <c r="AG28" s="6"/>
+      <c r="AH28" s="6"/>
+      <c r="AI28" s="6"/>
+      <c r="AJ28" s="6"/>
+      <c r="AK28" s="6"/>
+      <c r="AL28" s="6"/>
+      <c r="AM28" s="6"/>
+    </row>
+    <row r="29" spans="1:39">
+      <c r="A29" s="6"/>
+      <c r="B29" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="8">
+        <v>5</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H29" s="8">
+        <v>22</v>
+      </c>
+      <c r="I29" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" s="8">
+        <v>40</v>
+      </c>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC29" s="7"/>
+      <c r="AD29" s="7"/>
+      <c r="AE29" s="7"/>
+      <c r="AF29" s="7"/>
+      <c r="AG29" s="7"/>
+      <c r="AH29" s="7"/>
+      <c r="AI29" s="7"/>
+      <c r="AJ29" s="7"/>
+      <c r="AK29" s="7"/>
+      <c r="AL29" s="13"/>
+      <c r="AM29" s="13"/>
+    </row>
+    <row r="30" spans="1:39">
+      <c r="A30" s="6"/>
+      <c r="B30" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="8">
+        <v>3</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H30" s="8">
+        <v>22</v>
+      </c>
+      <c r="I30" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="13"/>
+      <c r="Z30" s="13"/>
+      <c r="AA30" s="6"/>
+      <c r="AB30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL30" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM30" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39">
+      <c r="A31" s="6"/>
+      <c r="B31" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="AP25" s="1" t="s">
+      <c r="D31" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="8">
+        <v>3</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H31" s="8">
+        <v>22</v>
+      </c>
+      <c r="I31" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y31" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z31" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA31" s="6"/>
+      <c r="AB31" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AQ25" s="1" t="s">
+      <c r="AC31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE31" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH31" s="1">
+        <v>65</v>
+      </c>
+      <c r="AI31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:39">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R32" s="1">
+        <v>2</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="U32" s="1">
+        <v>30</v>
+      </c>
+      <c r="V32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="W32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="X32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="6"/>
+      <c r="AB32" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC32" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE32" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH32" s="1">
+        <v>55</v>
+      </c>
+      <c r="AI32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:39">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R33" s="1">
+        <v>3</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="T33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="U33" s="1">
+        <v>35</v>
+      </c>
+      <c r="V33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="W33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="X33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="6"/>
+      <c r="AB33" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE33" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH33" s="1">
+        <v>45</v>
+      </c>
+      <c r="AI33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:39">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="P34" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q34" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="R34" s="10">
+        <v>4</v>
+      </c>
+      <c r="S34" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="T34" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="U34" s="10">
+        <v>22</v>
+      </c>
+      <c r="V34" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="W34" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="X34" s="10">
+        <v>40</v>
+      </c>
+      <c r="Y34" s="18"/>
+      <c r="Z34" s="18"/>
+      <c r="AA34" s="6"/>
+      <c r="AB34" s="6"/>
+      <c r="AC34" s="6"/>
+      <c r="AD34" s="6"/>
+      <c r="AE34" s="6"/>
+      <c r="AF34" s="6"/>
+      <c r="AG34" s="6"/>
+      <c r="AH34" s="6"/>
+      <c r="AI34" s="6"/>
+      <c r="AJ34" s="6"/>
+      <c r="AK34" s="6"/>
+      <c r="AL34" s="6"/>
+      <c r="AM34" s="6"/>
+    </row>
+    <row r="35" spans="1:39">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="P35" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q35" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="R35" s="10">
+        <v>3</v>
+      </c>
+      <c r="S35" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="T35" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="U35" s="10">
+        <v>16</v>
+      </c>
+      <c r="V35" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="W35" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="X35" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y35" s="18"/>
+      <c r="Z35" s="18"/>
+      <c r="AA35" s="6"/>
+      <c r="AB35" s="6"/>
+      <c r="AC35" s="6"/>
+      <c r="AD35" s="6"/>
+      <c r="AE35" s="6"/>
+      <c r="AF35" s="6"/>
+      <c r="AG35" s="6"/>
+      <c r="AH35" s="6"/>
+      <c r="AI35" s="6"/>
+      <c r="AJ35" s="6"/>
+      <c r="AK35" s="6"/>
+      <c r="AL35" s="6"/>
+      <c r="AM35" s="6"/>
+    </row>
+    <row r="36" spans="1:39">
+      <c r="A36" s="6"/>
+      <c r="B36" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="P36" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q36" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="R36" s="10">
+        <v>3</v>
+      </c>
+      <c r="S36" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="T36" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="U36" s="10">
+        <v>16</v>
+      </c>
+      <c r="V36" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="W36" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="X36" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y36" s="18"/>
+      <c r="Z36" s="18"/>
+      <c r="AA36" s="6"/>
+      <c r="AB36" s="6"/>
+      <c r="AC36" s="6"/>
+      <c r="AD36" s="6"/>
+      <c r="AE36" s="6"/>
+      <c r="AF36" s="6"/>
+      <c r="AG36" s="6"/>
+      <c r="AH36" s="6"/>
+      <c r="AI36" s="6"/>
+      <c r="AJ36" s="6"/>
+      <c r="AK36" s="6"/>
+      <c r="AL36" s="6"/>
+      <c r="AM36" s="6"/>
+    </row>
+    <row r="37" spans="1:39">
+      <c r="A37" s="6"/>
+      <c r="B37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L37" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="M37" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="N37" s="6"/>
+      <c r="O37" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="P37" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q37" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="R37" s="10">
+        <v>4</v>
+      </c>
+      <c r="S37" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="T37" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="U37" s="10">
         <v>18</v>
       </c>
-      <c r="AR25" s="1">
-        <v>2</v>
-      </c>
-      <c r="AS25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AT25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AU25" s="1">
-        <v>16</v>
-      </c>
-      <c r="AV25" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW25" s="1" t="b">
+      <c r="V37" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="AX25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ25" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB25" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="BC25" s="1" t="s">
+      <c r="W37" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="X37" s="10">
+        <v>70</v>
+      </c>
+      <c r="Y37" s="18"/>
+      <c r="Z37" s="18"/>
+      <c r="AA37" s="6"/>
+      <c r="AB37" s="6"/>
+      <c r="AC37" s="6"/>
+      <c r="AD37" s="6"/>
+      <c r="AE37" s="6"/>
+      <c r="AF37" s="6"/>
+      <c r="AG37" s="6"/>
+      <c r="AH37" s="6"/>
+      <c r="AI37" s="6"/>
+      <c r="AJ37" s="6"/>
+      <c r="AK37" s="6"/>
+      <c r="AL37" s="6"/>
+      <c r="AM37" s="6"/>
+    </row>
+    <row r="38" spans="1:39">
+      <c r="A38" s="6"/>
+      <c r="B38" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="9">
+        <v>4</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H38" s="9">
+        <v>60</v>
+      </c>
+      <c r="I38" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0</v>
+      </c>
+      <c r="M38" s="1">
+        <v>0</v>
+      </c>
+      <c r="N38" s="6"/>
+      <c r="O38" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="P38" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q38" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="R38" s="10">
+        <v>5</v>
+      </c>
+      <c r="S38" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="T38" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="U38" s="10">
+        <v>20</v>
+      </c>
+      <c r="V38" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="W38" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="X38" s="10">
+        <v>70</v>
+      </c>
+      <c r="Y38" s="18"/>
+      <c r="Z38" s="18"/>
+      <c r="AA38" s="6"/>
+      <c r="AB38" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC38" s="7"/>
+      <c r="AD38" s="7"/>
+      <c r="AE38" s="7"/>
+      <c r="AF38" s="7"/>
+      <c r="AG38" s="7"/>
+      <c r="AH38" s="7"/>
+      <c r="AI38" s="7"/>
+      <c r="AJ38" s="7"/>
+      <c r="AK38" s="7"/>
+      <c r="AL38" s="13"/>
+      <c r="AM38" s="13"/>
+    </row>
+    <row r="39" spans="1:39">
+      <c r="A39" s="6"/>
+      <c r="B39" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="9">
+        <v>3</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H39" s="9">
+        <v>40</v>
+      </c>
+      <c r="I39" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0</v>
+      </c>
+      <c r="M39" s="1">
+        <v>0</v>
+      </c>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
+      <c r="U39" s="6"/>
+      <c r="V39" s="6"/>
+      <c r="W39" s="6"/>
+      <c r="X39" s="6"/>
+      <c r="Y39" s="6"/>
+      <c r="Z39" s="6"/>
+      <c r="AA39" s="6"/>
+      <c r="AB39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL39" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM39" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:39">
+      <c r="A40" s="6"/>
+      <c r="B40" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E40" s="10">
+        <v>0</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H40" s="10">
+        <v>0</v>
+      </c>
+      <c r="I40" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6"/>
+      <c r="U40" s="6"/>
+      <c r="V40" s="6"/>
+      <c r="W40" s="6"/>
+      <c r="X40" s="6"/>
+      <c r="Y40" s="6"/>
+      <c r="Z40" s="6"/>
+      <c r="AA40" s="6"/>
+      <c r="AB40" s="6"/>
+      <c r="AC40" s="6"/>
+      <c r="AD40" s="6"/>
+      <c r="AE40" s="6"/>
+      <c r="AF40" s="6"/>
+      <c r="AG40" s="6"/>
+      <c r="AH40" s="6"/>
+      <c r="AI40" s="6"/>
+      <c r="AJ40" s="6"/>
+      <c r="AK40" s="6"/>
+      <c r="AL40" s="6"/>
+      <c r="AM40" s="6"/>
+    </row>
+    <row r="41" spans="1:39">
+      <c r="A41" s="6"/>
+      <c r="B41" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" s="10">
+        <v>4</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H41" s="10">
+        <v>24</v>
+      </c>
+      <c r="I41" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J41" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K41" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="L41" s="18"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="6"/>
+      <c r="U41" s="6"/>
+      <c r="V41" s="6"/>
+      <c r="W41" s="6"/>
+      <c r="X41" s="6"/>
+      <c r="Y41" s="6"/>
+      <c r="Z41" s="6"/>
+      <c r="AA41" s="6"/>
+      <c r="AB41" s="6"/>
+      <c r="AC41" s="6"/>
+      <c r="AD41" s="6"/>
+      <c r="AE41" s="6"/>
+      <c r="AF41" s="6"/>
+      <c r="AG41" s="6"/>
+      <c r="AH41" s="6"/>
+      <c r="AI41" s="6"/>
+      <c r="AJ41" s="6"/>
+      <c r="AK41" s="6"/>
+      <c r="AL41" s="6"/>
+      <c r="AM41" s="6"/>
+    </row>
+    <row r="42" spans="1:39">
+      <c r="A42" s="6"/>
+      <c r="B42" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" s="10">
+        <v>5</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H42" s="10">
+        <v>26</v>
+      </c>
+      <c r="I42" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J42" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" s="10">
+        <v>40</v>
+      </c>
+      <c r="L42" s="18"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6"/>
+      <c r="T42" s="6"/>
+      <c r="U42" s="6"/>
+      <c r="V42" s="6"/>
+      <c r="W42" s="6"/>
+      <c r="X42" s="6"/>
+      <c r="Y42" s="6"/>
+      <c r="Z42" s="6"/>
+      <c r="AA42" s="6"/>
+      <c r="AB42" s="6"/>
+      <c r="AC42" s="6"/>
+      <c r="AD42" s="6"/>
+      <c r="AE42" s="6"/>
+      <c r="AF42" s="6"/>
+      <c r="AG42" s="6"/>
+      <c r="AH42" s="6"/>
+      <c r="AI42" s="6"/>
+      <c r="AJ42" s="6"/>
+      <c r="AK42" s="6"/>
+      <c r="AL42" s="6"/>
+      <c r="AM42" s="6"/>
+    </row>
+    <row r="43" spans="1:39">
+      <c r="A43" s="6"/>
+      <c r="B43" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43" s="10">
+        <v>3</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="H43" s="10">
+        <v>20</v>
+      </c>
+      <c r="I43" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43" s="10">
+        <v>30</v>
+      </c>
+      <c r="L43" s="18"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="7"/>
+      <c r="U43" s="7"/>
+      <c r="V43" s="7"/>
+      <c r="W43" s="7"/>
+      <c r="X43" s="7"/>
+      <c r="Y43" s="13"/>
+      <c r="Z43" s="13"/>
+      <c r="AA43" s="6"/>
+      <c r="AB43" s="6"/>
+      <c r="AC43" s="6"/>
+      <c r="AD43" s="6"/>
+      <c r="AE43" s="6"/>
+      <c r="AF43" s="6"/>
+      <c r="AG43" s="6"/>
+      <c r="AH43" s="6"/>
+      <c r="AI43" s="6"/>
+      <c r="AJ43" s="6"/>
+      <c r="AK43" s="6"/>
+      <c r="AL43" s="6"/>
+      <c r="AM43" s="6"/>
+    </row>
+    <row r="44" spans="1:39">
+      <c r="A44" s="6"/>
+      <c r="B44" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" s="10">
+        <v>3</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="H44" s="10">
+        <v>18</v>
+      </c>
+      <c r="I44" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K44" s="10">
+        <v>30</v>
+      </c>
+      <c r="L44" s="18"/>
+      <c r="M44" s="18"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S44" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T44" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U44" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V44" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W44" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y44" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z44" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA44" s="6"/>
+      <c r="AB44" s="6"/>
+      <c r="AC44" s="6"/>
+      <c r="AD44" s="6"/>
+      <c r="AE44" s="6"/>
+      <c r="AF44" s="6"/>
+      <c r="AG44" s="6"/>
+      <c r="AH44" s="6"/>
+      <c r="AI44" s="6"/>
+      <c r="AJ44" s="6"/>
+      <c r="AK44" s="6"/>
+      <c r="AL44" s="6"/>
+      <c r="AM44" s="6"/>
+    </row>
+    <row r="45" spans="1:39">
+      <c r="A45" s="6"/>
+      <c r="B45" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" s="10">
+        <v>5</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="H45" s="10">
+        <v>22</v>
+      </c>
+      <c r="I45" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J45" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" s="10">
+        <v>55</v>
+      </c>
+      <c r="L45" s="18"/>
+      <c r="M45" s="18"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R45" s="1">
+        <v>1</v>
+      </c>
+      <c r="S45" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="T45" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="U45" s="1">
+        <v>10</v>
+      </c>
+      <c r="V45" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="W45" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="X45" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="6"/>
+      <c r="AB45" s="6"/>
+      <c r="AC45" s="6"/>
+      <c r="AD45" s="6"/>
+      <c r="AE45" s="6"/>
+      <c r="AF45" s="6"/>
+      <c r="AG45" s="6"/>
+      <c r="AH45" s="6"/>
+      <c r="AI45" s="6"/>
+      <c r="AJ45" s="6"/>
+      <c r="AK45" s="6"/>
+      <c r="AL45" s="6"/>
+      <c r="AM45" s="6"/>
+    </row>
+    <row r="46" spans="1:39">
+      <c r="A46" s="6"/>
+      <c r="B46" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" s="10">
+        <v>5</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="H46" s="10">
+        <v>24</v>
+      </c>
+      <c r="I46" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J46" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" s="10">
+        <v>55</v>
+      </c>
+      <c r="L46" s="18"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R46" s="1">
+        <v>1</v>
+      </c>
+      <c r="S46" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="T46" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="U46" s="1">
+        <v>10</v>
+      </c>
+      <c r="V46" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="W46" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="X46" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="6"/>
+      <c r="AB46" s="6"/>
+      <c r="AC46" s="6"/>
+      <c r="AD46" s="6"/>
+      <c r="AE46" s="6"/>
+      <c r="AF46" s="6"/>
+      <c r="AG46" s="6"/>
+      <c r="AH46" s="6"/>
+      <c r="AI46" s="6"/>
+      <c r="AJ46" s="6"/>
+      <c r="AK46" s="6"/>
+      <c r="AL46" s="6"/>
+      <c r="AM46" s="6"/>
+    </row>
+    <row r="47" spans="1:39">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="P47" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q47" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="R47" s="8">
+        <v>1</v>
+      </c>
+      <c r="S47" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="T47" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="U47" s="8">
+        <v>6</v>
+      </c>
+      <c r="V47" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="W47" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="X47" s="17"/>
+      <c r="Y47" s="17"/>
+      <c r="Z47" s="17"/>
+      <c r="AA47" s="6"/>
+      <c r="AB47" s="6"/>
+      <c r="AC47" s="6"/>
+      <c r="AD47" s="6"/>
+      <c r="AE47" s="6"/>
+      <c r="AF47" s="6"/>
+      <c r="AG47" s="6"/>
+      <c r="AH47" s="6"/>
+      <c r="AI47" s="6"/>
+      <c r="AJ47" s="6"/>
+      <c r="AK47" s="6"/>
+      <c r="AL47" s="6"/>
+      <c r="AM47" s="6"/>
+    </row>
+    <row r="48" spans="1:39">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="P48" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q48" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="R48" s="8">
+        <v>1</v>
+      </c>
+      <c r="S48" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="T48" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="U48" s="8">
+        <v>6</v>
+      </c>
+      <c r="V48" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="W48" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="X48" s="17"/>
+      <c r="Y48" s="17"/>
+      <c r="Z48" s="17"/>
+      <c r="AA48" s="6"/>
+      <c r="AB48" s="6"/>
+      <c r="AC48" s="6"/>
+      <c r="AD48" s="6"/>
+      <c r="AE48" s="6"/>
+      <c r="AF48" s="6"/>
+      <c r="AG48" s="6"/>
+      <c r="AH48" s="6"/>
+      <c r="AI48" s="6"/>
+      <c r="AJ48" s="6"/>
+      <c r="AK48" s="6"/>
+      <c r="AL48" s="6"/>
+      <c r="AM48" s="6"/>
+    </row>
+    <row r="49" spans="1:39">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="6"/>
+      <c r="S49" s="6"/>
+      <c r="T49" s="6"/>
+      <c r="U49" s="6"/>
+      <c r="V49" s="6"/>
+      <c r="W49" s="6"/>
+      <c r="X49" s="6"/>
+      <c r="Y49" s="6"/>
+      <c r="Z49" s="6"/>
+      <c r="AA49" s="6"/>
+      <c r="AB49" s="6"/>
+      <c r="AC49" s="6"/>
+      <c r="AD49" s="6"/>
+      <c r="AE49" s="6"/>
+      <c r="AF49" s="6"/>
+      <c r="AG49" s="6"/>
+      <c r="AH49" s="6"/>
+      <c r="AI49" s="6"/>
+      <c r="AJ49" s="6"/>
+      <c r="AK49" s="6"/>
+      <c r="AL49" s="6"/>
+      <c r="AM49" s="6"/>
+    </row>
+    <row r="50" spans="1:39">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="6"/>
+      <c r="R50" s="6"/>
+      <c r="S50" s="6"/>
+      <c r="T50" s="6"/>
+      <c r="U50" s="6"/>
+      <c r="V50" s="6"/>
+      <c r="W50" s="6"/>
+      <c r="X50" s="6"/>
+      <c r="Y50" s="6"/>
+      <c r="Z50" s="6"/>
+      <c r="AA50" s="6"/>
+      <c r="AB50" s="6"/>
+      <c r="AC50" s="6"/>
+      <c r="AD50" s="6"/>
+      <c r="AE50" s="6"/>
+      <c r="AF50" s="6"/>
+      <c r="AG50" s="6"/>
+      <c r="AH50" s="6"/>
+      <c r="AI50" s="6"/>
+      <c r="AJ50" s="6"/>
+      <c r="AK50" s="6"/>
+      <c r="AL50" s="6"/>
+      <c r="AM50" s="6"/>
+    </row>
+    <row r="51" spans="1:39">
+      <c r="A51" s="6"/>
+      <c r="B51" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="13"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="6"/>
+      <c r="T51" s="6"/>
+      <c r="U51" s="6"/>
+      <c r="V51" s="6"/>
+      <c r="W51" s="6"/>
+      <c r="X51" s="6"/>
+      <c r="Y51" s="6"/>
+      <c r="Z51" s="6"/>
+      <c r="AA51" s="6"/>
+      <c r="AB51" s="6"/>
+      <c r="AC51" s="6"/>
+      <c r="AD51" s="6"/>
+      <c r="AE51" s="6"/>
+      <c r="AF51" s="6"/>
+      <c r="AG51" s="6"/>
+      <c r="AH51" s="6"/>
+      <c r="AI51" s="6"/>
+      <c r="AJ51" s="6"/>
+      <c r="AK51" s="6"/>
+      <c r="AL51" s="6"/>
+      <c r="AM51" s="6"/>
+    </row>
+    <row r="52" spans="1:39">
+      <c r="A52" s="6"/>
+      <c r="B52" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L52" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="M52" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="6"/>
+      <c r="T52" s="6"/>
+      <c r="U52" s="6"/>
+      <c r="V52" s="6"/>
+      <c r="W52" s="6"/>
+      <c r="X52" s="6"/>
+      <c r="Y52" s="6"/>
+      <c r="Z52" s="6"/>
+      <c r="AA52" s="6"/>
+      <c r="AB52" s="6"/>
+      <c r="AC52" s="6"/>
+      <c r="AD52" s="6"/>
+      <c r="AE52" s="6"/>
+      <c r="AF52" s="6"/>
+      <c r="AG52" s="6"/>
+      <c r="AH52" s="6"/>
+      <c r="AI52" s="6"/>
+      <c r="AJ52" s="6"/>
+      <c r="AK52" s="6"/>
+      <c r="AL52" s="6"/>
+      <c r="AM52" s="6"/>
+    </row>
+    <row r="53" spans="1:39">
+      <c r="A53" s="6"/>
+      <c r="B53" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="1">
+        <v>6</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H53" s="1">
         <v>80</v>
       </c>
-      <c r="BD25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="BE25" s="1">
-        <v>3</v>
-      </c>
-      <c r="BF25" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BG25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BH25" s="1">
+      <c r="I53" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K53" s="1">
+        <v>0</v>
+      </c>
+      <c r="L53" s="1">
+        <v>0</v>
+      </c>
+      <c r="M53" s="1">
+        <v>0</v>
+      </c>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="6"/>
+      <c r="T53" s="6"/>
+      <c r="U53" s="6"/>
+      <c r="V53" s="6"/>
+      <c r="W53" s="6"/>
+      <c r="X53" s="6"/>
+      <c r="Y53" s="6"/>
+      <c r="Z53" s="6"/>
+      <c r="AA53" s="6"/>
+      <c r="AB53" s="6"/>
+      <c r="AC53" s="6"/>
+      <c r="AD53" s="6"/>
+      <c r="AE53" s="6"/>
+      <c r="AF53" s="6"/>
+      <c r="AG53" s="6"/>
+      <c r="AH53" s="6"/>
+      <c r="AI53" s="6"/>
+      <c r="AJ53" s="6"/>
+      <c r="AK53" s="6"/>
+      <c r="AL53" s="6"/>
+      <c r="AM53" s="6"/>
+    </row>
+    <row r="54" spans="1:39">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="6"/>
+      <c r="S54" s="6"/>
+      <c r="T54" s="6"/>
+      <c r="U54" s="6"/>
+      <c r="V54" s="6"/>
+      <c r="W54" s="6"/>
+      <c r="X54" s="6"/>
+      <c r="Y54" s="6"/>
+      <c r="Z54" s="6"/>
+      <c r="AA54" s="6"/>
+      <c r="AB54" s="6"/>
+      <c r="AC54" s="6"/>
+      <c r="AD54" s="6"/>
+      <c r="AE54" s="6"/>
+      <c r="AF54" s="6"/>
+      <c r="AG54" s="6"/>
+      <c r="AH54" s="6"/>
+      <c r="AI54" s="6"/>
+      <c r="AJ54" s="6"/>
+      <c r="AK54" s="6"/>
+      <c r="AL54" s="6"/>
+      <c r="AM54" s="6"/>
+    </row>
+    <row r="55" spans="1:39">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="6"/>
+      <c r="R55" s="6"/>
+      <c r="S55" s="6"/>
+      <c r="T55" s="6"/>
+      <c r="U55" s="6"/>
+      <c r="V55" s="6"/>
+      <c r="W55" s="6"/>
+      <c r="X55" s="6"/>
+      <c r="Y55" s="6"/>
+      <c r="Z55" s="6"/>
+      <c r="AA55" s="6"/>
+      <c r="AB55" s="6"/>
+      <c r="AC55" s="6"/>
+      <c r="AD55" s="6"/>
+      <c r="AE55" s="6"/>
+      <c r="AF55" s="6"/>
+      <c r="AG55" s="6"/>
+      <c r="AH55" s="6"/>
+      <c r="AI55" s="6"/>
+      <c r="AJ55" s="6"/>
+      <c r="AK55" s="6"/>
+      <c r="AL55" s="6"/>
+      <c r="AM55" s="6"/>
+    </row>
+    <row r="56" spans="1:39">
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="6"/>
+      <c r="S56" s="6"/>
+      <c r="T56" s="6"/>
+      <c r="U56" s="6"/>
+      <c r="V56" s="6"/>
+      <c r="W56" s="6"/>
+      <c r="X56" s="6"/>
+      <c r="Y56" s="6"/>
+      <c r="Z56" s="6"/>
+      <c r="AA56" s="6"/>
+      <c r="AB56" s="6"/>
+      <c r="AC56" s="6"/>
+      <c r="AD56" s="6"/>
+      <c r="AE56" s="6"/>
+      <c r="AF56" s="6"/>
+      <c r="AG56" s="6"/>
+      <c r="AH56" s="6"/>
+      <c r="AI56" s="6"/>
+      <c r="AJ56" s="6"/>
+      <c r="AK56" s="6"/>
+      <c r="AL56" s="6"/>
+      <c r="AM56" s="6"/>
+    </row>
+    <row r="57" spans="1:39">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="6"/>
+      <c r="S57" s="6"/>
+      <c r="T57" s="6"/>
+      <c r="U57" s="6"/>
+      <c r="V57" s="6"/>
+      <c r="W57" s="6"/>
+      <c r="X57" s="6"/>
+      <c r="Y57" s="6"/>
+      <c r="Z57" s="6"/>
+      <c r="AA57" s="6"/>
+      <c r="AB57" s="6"/>
+      <c r="AC57" s="6"/>
+      <c r="AD57" s="6"/>
+      <c r="AE57" s="6"/>
+      <c r="AF57" s="6"/>
+      <c r="AG57" s="6"/>
+      <c r="AH57" s="6"/>
+      <c r="AI57" s="6"/>
+      <c r="AJ57" s="6"/>
+      <c r="AK57" s="6"/>
+      <c r="AL57" s="6"/>
+      <c r="AM57" s="6"/>
+    </row>
+    <row r="58" spans="1:39">
+      <c r="A58" s="6"/>
+      <c r="B58" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="13"/>
+      <c r="M58" s="13"/>
+      <c r="N58" s="6"/>
+      <c r="O58" s="6"/>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="6"/>
+      <c r="R58" s="6"/>
+      <c r="S58" s="6"/>
+      <c r="T58" s="6"/>
+      <c r="U58" s="6"/>
+      <c r="V58" s="6"/>
+      <c r="W58" s="6"/>
+      <c r="X58" s="6"/>
+      <c r="Y58" s="6"/>
+      <c r="Z58" s="6"/>
+      <c r="AA58" s="6"/>
+      <c r="AB58" s="6"/>
+      <c r="AC58" s="6"/>
+      <c r="AD58" s="6"/>
+      <c r="AE58" s="6"/>
+      <c r="AF58" s="6"/>
+      <c r="AG58" s="6"/>
+      <c r="AH58" s="6"/>
+      <c r="AI58" s="6"/>
+      <c r="AJ58" s="6"/>
+      <c r="AK58" s="6"/>
+      <c r="AL58" s="6"/>
+      <c r="AM58" s="6"/>
+    </row>
+    <row r="59" spans="1:39">
+      <c r="A59" s="6"/>
+      <c r="B59" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="BI25" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ25" s="1" t="b">
+      <c r="E59" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L59" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="M59" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="N59" s="6"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="6"/>
+      <c r="S59" s="6"/>
+      <c r="T59" s="6"/>
+      <c r="U59" s="6"/>
+      <c r="V59" s="6"/>
+      <c r="W59" s="6"/>
+      <c r="X59" s="6"/>
+      <c r="Y59" s="6"/>
+      <c r="Z59" s="6"/>
+      <c r="AA59" s="6"/>
+      <c r="AB59" s="6"/>
+      <c r="AC59" s="6"/>
+      <c r="AD59" s="6"/>
+      <c r="AE59" s="6"/>
+      <c r="AF59" s="6"/>
+      <c r="AG59" s="6"/>
+      <c r="AH59" s="6"/>
+      <c r="AI59" s="6"/>
+      <c r="AJ59" s="6"/>
+      <c r="AK59" s="6"/>
+      <c r="AL59" s="6"/>
+      <c r="AM59" s="6"/>
+    </row>
+    <row r="60" spans="1:39">
+      <c r="A60" s="6"/>
+      <c r="B60" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E60" s="8">
+        <v>4</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H60" s="8">
+        <v>45</v>
+      </c>
+      <c r="I60" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="BK25" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL25" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM25" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO25" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BP25" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="BQ25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="BR25" s="1">
-        <v>1</v>
-      </c>
-      <c r="BS25" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BT25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BU25" s="1">
-        <v>10</v>
-      </c>
-      <c r="BV25" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="BW25" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="BX25" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY25" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ25" s="1">
-        <v>0</v>
-      </c>
-      <c r="CO25" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CP25" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="CQ25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="CR25" s="1">
-        <v>4</v>
-      </c>
-      <c r="CS25" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="CT25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="CU25" s="1">
-        <v>55</v>
-      </c>
-      <c r="CV25" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="CW25" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="CX25" s="1">
-        <v>0</v>
-      </c>
-      <c r="CY25" s="1">
-        <v>0</v>
-      </c>
-      <c r="CZ25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="93:104">
-      <c r="CO26" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CP26" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="CQ26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="CR26" s="1">
-        <v>3</v>
-      </c>
-      <c r="CS26" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="CT26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="CU26" s="1">
-        <v>45</v>
-      </c>
-      <c r="CV26" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="CW26" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="CX26" s="1">
-        <v>0</v>
-      </c>
-      <c r="CY26" s="1">
-        <v>0</v>
-      </c>
-      <c r="CZ26" s="1">
-        <v>0</v>
-      </c>
+      <c r="J60" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K60" s="17"/>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="6"/>
+      <c r="S60" s="6"/>
+      <c r="T60" s="6"/>
+      <c r="U60" s="6"/>
+      <c r="V60" s="6"/>
+      <c r="W60" s="6"/>
+      <c r="X60" s="6"/>
+      <c r="Y60" s="6"/>
+      <c r="Z60" s="6"/>
+      <c r="AA60" s="6"/>
+      <c r="AB60" s="6"/>
+      <c r="AC60" s="6"/>
+      <c r="AD60" s="6"/>
+      <c r="AE60" s="6"/>
+      <c r="AF60" s="6"/>
+      <c r="AG60" s="6"/>
+      <c r="AH60" s="6"/>
+      <c r="AI60" s="6"/>
+      <c r="AJ60" s="6"/>
+      <c r="AK60" s="6"/>
+      <c r="AL60" s="6"/>
+      <c r="AM60" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="46">
+  <mergeCells count="48">
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="I2:M2"/>
     <mergeCell ref="C3:G3"/>
@@ -2862,11 +4687,13 @@
     <mergeCell ref="B22:M22"/>
     <mergeCell ref="O22:Z22"/>
     <mergeCell ref="AB22:AM22"/>
-    <mergeCell ref="AO22:AZ22"/>
-    <mergeCell ref="BB22:BM22"/>
-    <mergeCell ref="BO22:BZ22"/>
-    <mergeCell ref="CB22:CM22"/>
-    <mergeCell ref="CO22:CZ22"/>
+    <mergeCell ref="AB29:AM29"/>
+    <mergeCell ref="O30:Z30"/>
+    <mergeCell ref="B36:M36"/>
+    <mergeCell ref="AB38:AM38"/>
+    <mergeCell ref="O43:Z43"/>
+    <mergeCell ref="B51:M51"/>
+    <mergeCell ref="B58:M58"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
